--- a/data/raw/Data-ThaiBiomass.xlsx
+++ b/data/raw/Data-ThaiBiomass.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Current Work\Biomass Gasification Optimisation\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Professional Work\PSL Project\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EA96EF-AF58-4BC5-B472-8998538D6375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3626F8FB-8406-40F9-BCD0-A659783B8741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agricultural Product Data - Raw" sheetId="9" r:id="rId1"/>
     <sheet name="Agricultural Product Data" sheetId="5" r:id="rId2"/>
-    <sheet name="Biomass Conversion Factor" sheetId="3" r:id="rId3"/>
-    <sheet name="Biomass Data - Calculation" sheetId="6" state="hidden" r:id="rId4"/>
-    <sheet name="Biomass Price" sheetId="8" r:id="rId5"/>
-    <sheet name="Biomass Data" sheetId="7" r:id="rId6"/>
+    <sheet name="Biomass Data - Calculation" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="Biomass Data - Unsorted" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Biomass Data" sheetId="11" r:id="rId5"/>
+    <sheet name="Biomass Cost" sheetId="8" r:id="rId6"/>
+    <sheet name="Biomass Conversion Factor" sheetId="3" r:id="rId7"/>
+    <sheet name="Transportation Cost Calculation" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Biomass Conversion Factor'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Biomass Conversion Factor'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Biomass Cost'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Biomass Data'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="180">
   <si>
     <t>Rice straw</t>
   </si>
@@ -379,9 +383,6 @@
     <t>Cassava</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>cassava rhizome</t>
   </si>
   <si>
@@ -447,12 +448,153 @@
   <si>
     <t>Sa Kaeo</t>
   </si>
+  <si>
+    <t>Transportation Cost</t>
+  </si>
+  <si>
+    <t>Feedstock Cost</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Fuel consumption rate</t>
+  </si>
+  <si>
+    <t>Fuel consumption cost</t>
+  </si>
+  <si>
+    <t>THB/km</t>
+  </si>
+  <si>
+    <t>THB/L</t>
+  </si>
+  <si>
+    <t>km/L</t>
+  </si>
+  <si>
+    <t>Number of tires</t>
+  </si>
+  <si>
+    <t>tires</t>
+  </si>
+  <si>
+    <t>THB/tire</t>
+  </si>
+  <si>
+    <t>Tire lifespan</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Total variable cost</t>
+  </si>
+  <si>
+    <t>Truck maintenance cost</t>
+  </si>
+  <si>
+    <t>Cargo width</t>
+  </si>
+  <si>
+    <t>Cargo length</t>
+  </si>
+  <si>
+    <t>Cargo height</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Cargo capacity</t>
+  </si>
+  <si>
+    <t>tonne</t>
+  </si>
+  <si>
+    <t>Cargo volume</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Weight at Max Cargo Capacity</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>J. Ji and N. Nananukul, “Supply chain for sustainable renewable energy from biomass,” IJLSM, vol. 33, no. 4, p. 568, 2019, doi: 10.1504/IJLSM.2019.101798.</t>
+  </si>
+  <si>
+    <t>Feedstock Cost Reference</t>
+  </si>
+  <si>
+    <t>Density Reference</t>
+  </si>
+  <si>
+    <t>R. Wahab et al., “Processing and Properties of Oil Palm Fronds Composite Boards from Elaeis guineensis,” in Elaeis guineensis, IntechOpen, 2021. doi: 10.5772/intechopen.98222.</t>
+  </si>
+  <si>
+    <t>Y. Zhang, A. E. Ghaly, and B. Li, “Physical Properties of Rice Residues as Affected by Variety and Climatic and Cultivation Onditions in Three Continents,” AJAS, vol. 9, no. 11, pp. 1757–1768, Aug. 2012, doi: 10.3844/ajassp.2012.1757.1768.</t>
+  </si>
+  <si>
+    <t>M. D. Azharuddin and G. Satnami, “Assessment of Power Generation Potentials by Some Agricultural Wastes,” vol. 7, no. 7, 2020.</t>
+  </si>
+  <si>
+    <t>C. Oupathum and S. Sudajan, “Effects of Feed Rate and Compressing Speed of Roller Wheel on the Performance of a Sugar Cane Leaf Pelleting Unit,” 2012.</t>
+  </si>
+  <si>
+    <t>A. Mwango and C. Kambole, “Engineering Characteristics and Potential Increased Utilisation of Sawdust Composites in Construction—A Review,” Journal of Building Construction and Planning Research, vol. 7, no. 3, Art. no. 3, Sep. 2019, doi: 10.4236/jbcpr.2019.73005.</t>
+  </si>
+  <si>
+    <t>Y. Zhang, A. E. Ghaly, and B. Li, “Physical Properties of Corn Residues,” AJBB, vol. 8, no. 2, pp. 44–53, Jun. 2012, doi: 10.3844/ajbbsp.2012.44.53.</t>
+  </si>
+  <si>
+    <t>W. Arjharn et al., “The assessment of raw material and the energy production from cassava stock technology,” The assessment of raw material and the energy production from cassava stock technology, 2010, Accessed: May 31, 2024. [Online]. Available: http://sutir.sut.ac.th:8080/jspui/handle/123456789/3467</t>
+  </si>
+  <si>
+    <t>S. Seansukato and C. Yenphayab, “Study the optimal mixing ratio and the physical quality of the bio-composite pot from coconut residue,” Khon Kaen Agriculture Journal, vol. 47, 2019.</t>
+  </si>
+  <si>
+    <t>S. Thanthara, W. Tia, and S. Soponronnarit, “Assessment of Technology and Cost of Power Generation from Agricultural Residues in Thailand,” 2013.</t>
+  </si>
+  <si>
+    <t>H. Kinkhabwala, V. M. Bhojawala, S. Desai, and D. V. Patel, “Design of Hydraulic Biomass Briquette Machine,” IOP Conf. Ser.: Mater. Sci. Eng., vol. 1258, no. 1, p. 012040, Oct. 2022, doi: 10.1088/1757-899X/1258/1/012040.</t>
+  </si>
+  <si>
+    <t>W. Wongsapai, Y. Achawangkul, W. Thepsaskul, S. Daroon, and T. Fongsamootr, “Biomass supply chain for power generation in southern part of Thailand,” Energy Reports, vol. 6, pp. 221–227, Feb. 2020, doi: 10.1016/j.egyr.2019.11.066.</t>
+  </si>
+  <si>
+    <t>B. Dangprok, K. Y. Tippayawong, and N. Tippayawong, “Potential use of various biomass sources for operating cost reduction in a power plant in Southern Thailand,” AIP Conference Proceedings, vol. 2681, no. 1, p. 020012, Nov. 2022, doi: 10.1063/5.0115838.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Average tire cost per km</t>
+  </si>
+  <si>
+    <t>Fuel price</t>
+  </si>
+  <si>
+    <t>Tire price</t>
+  </si>
+  <si>
+    <t>as of 17 May 2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,16 +621,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -636,11 +792,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,6 +901,64 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED752ACF-FCC3-4ACD-B47A-23496AD69ED5}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1198,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>93</v>
@@ -1595,7 +1838,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>93</v>
@@ -1780,7 +2023,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>93</v>
@@ -1858,7 +2101,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>92</v>
@@ -2072,7 +2315,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>94</v>
@@ -2706,7 +2949,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>92</v>
@@ -2726,7 +2969,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>92</v>
@@ -2746,7 +2989,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>92</v>
@@ -3388,7 +3631,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>93</v>
@@ -3836,7 +4079,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>93</v>
@@ -4060,7 +4303,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>93</v>
@@ -4156,7 +4399,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>92</v>
@@ -4412,7 +4655,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>94</v>
@@ -5148,7 +5391,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>92</v>
@@ -5180,7 +5423,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>92</v>
@@ -5212,7 +5455,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>92</v>
@@ -5693,431 +5936,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43554B66-5810-46DC-9357-F0098C102DAE}">
-  <dimension ref="B1:E54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="6" width="20.77734375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="85.77734375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="C6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1.84</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1.41</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0.33</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="24">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B498E52-C4B1-40CB-8DF7-DF6858D77A62}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
@@ -11587,144 +11405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FC76C1-EEFB-410C-882F-407CDAD472BB}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="2">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="2">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="2">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="2">
-        <v>600</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0288DF20-EBCA-40A0-8593-597E8AD245B1}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
@@ -11757,46 +11438,46 @@
         <v>Region</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="K1" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -16119,4 +15800,5238 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF40C198-E2A7-43C0-B34C-4E400FD0A220}">
+  <dimension ref="A1:Q78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="29" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.88671875" style="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>73</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="27">
+        <v>73962.266666666663</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27">
+        <v>558.74666666666667</v>
+      </c>
+      <c r="H2" s="27">
+        <v>72.88</v>
+      </c>
+      <c r="I2" s="27">
+        <v>2540.3733333333334</v>
+      </c>
+      <c r="J2" s="27">
+        <v>11193.52</v>
+      </c>
+      <c r="K2" s="27">
+        <v>317.54666666666668</v>
+      </c>
+      <c r="L2" s="27">
+        <v>7938.666666666667</v>
+      </c>
+      <c r="M2" s="27">
+        <v>76444.34</v>
+      </c>
+      <c r="N2" s="27">
+        <v>178370.12666666668</v>
+      </c>
+      <c r="O2" s="27">
+        <v>3610.125</v>
+      </c>
+      <c r="P2" s="27">
+        <v>233808.49333333338</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>141955.15666666668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>72</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
+        <v>0</v>
+      </c>
+      <c r="L3" s="27">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
+        <v>41769.629999999997</v>
+      </c>
+      <c r="N3" s="27">
+        <v>97462.47</v>
+      </c>
+      <c r="O3" s="27">
+        <v>0</v>
+      </c>
+      <c r="P3" s="27">
+        <v>50940.866666666669</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>30928.383333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0</v>
+      </c>
+      <c r="I4" s="27">
+        <v>30.613333333333337</v>
+      </c>
+      <c r="J4" s="27">
+        <v>134.88999999999999</v>
+      </c>
+      <c r="K4" s="27">
+        <v>3.8266666666666671</v>
+      </c>
+      <c r="L4" s="27">
+        <v>95.666666666666671</v>
+      </c>
+      <c r="M4" s="27">
+        <v>11851</v>
+      </c>
+      <c r="N4" s="27">
+        <v>27652.333333333336</v>
+      </c>
+      <c r="O4" s="27">
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="27">
+        <v>3914.5333333333338</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0</v>
+      </c>
+      <c r="I5" s="27">
+        <v>16102.506666666668</v>
+      </c>
+      <c r="J5" s="27">
+        <v>70951.67</v>
+      </c>
+      <c r="K5" s="27">
+        <v>2012.8133333333335</v>
+      </c>
+      <c r="L5" s="27">
+        <v>50320.333333333336</v>
+      </c>
+      <c r="M5" s="27">
+        <v>31423.559999999998</v>
+      </c>
+      <c r="N5" s="27">
+        <v>73321.64</v>
+      </c>
+      <c r="O5" s="27">
+        <v>37916.294999999998</v>
+      </c>
+      <c r="P5" s="27">
+        <v>10417.960000000001</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>6325.1900000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="27">
+        <v>227077.46666666667</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
+        <v>1583.0133333333335</v>
+      </c>
+      <c r="H6" s="27">
+        <v>206.48</v>
+      </c>
+      <c r="I6" s="27">
+        <v>3430.6133333333332</v>
+      </c>
+      <c r="J6" s="27">
+        <v>15116.139999999998</v>
+      </c>
+      <c r="K6" s="27">
+        <v>428.82666666666665</v>
+      </c>
+      <c r="L6" s="27">
+        <v>10720.666666666666</v>
+      </c>
+      <c r="M6" s="27">
+        <v>198078.93</v>
+      </c>
+      <c r="N6" s="27">
+        <v>462184.17</v>
+      </c>
+      <c r="O6" s="27">
+        <v>13287.24</v>
+      </c>
+      <c r="P6" s="27">
+        <v>386923.04000000004</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>234917.56000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="27">
+        <v>158677.46666666667</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1281.3136050000001</v>
+      </c>
+      <c r="F7" s="27">
+        <v>970.69212500000003</v>
+      </c>
+      <c r="G7" s="27">
+        <v>3860.32</v>
+      </c>
+      <c r="H7" s="27">
+        <v>503.52</v>
+      </c>
+      <c r="I7" s="27">
+        <v>20584.853333333333</v>
+      </c>
+      <c r="J7" s="27">
+        <v>90702.01</v>
+      </c>
+      <c r="K7" s="27">
+        <v>2573.1066666666666</v>
+      </c>
+      <c r="L7" s="27">
+        <v>64327.666666666664</v>
+      </c>
+      <c r="M7" s="27">
+        <v>76532.819999999992</v>
+      </c>
+      <c r="N7" s="27">
+        <v>178576.58</v>
+      </c>
+      <c r="O7" s="27">
+        <v>8385.9600000000009</v>
+      </c>
+      <c r="P7" s="27">
+        <v>71815.706666666665</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>43602.393333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="27">
+        <v>39025.133333333331</v>
+      </c>
+      <c r="E8" s="27">
+        <v>33.139425000000003</v>
+      </c>
+      <c r="F8" s="27">
+        <v>25.105625</v>
+      </c>
+      <c r="G8" s="27">
+        <v>36351.653333333335</v>
+      </c>
+      <c r="H8" s="27">
+        <v>4741.5199999999995</v>
+      </c>
+      <c r="I8" s="27">
+        <v>438.08</v>
+      </c>
+      <c r="J8" s="27">
+        <v>1930.29</v>
+      </c>
+      <c r="K8" s="27">
+        <v>54.76</v>
+      </c>
+      <c r="L8" s="27">
+        <v>1369</v>
+      </c>
+      <c r="M8" s="27">
+        <v>107472.33</v>
+      </c>
+      <c r="N8" s="27">
+        <v>250768.77</v>
+      </c>
+      <c r="O8" s="27">
+        <v>78.052499999999995</v>
+      </c>
+      <c r="P8" s="27">
+        <v>302310.8666666667</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>183545.88333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="27">
+        <v>436690.33333333331</v>
+      </c>
+      <c r="E9" s="27">
+        <v>14.887124999999999</v>
+      </c>
+      <c r="F9" s="27">
+        <v>11.278124999999999</v>
+      </c>
+      <c r="G9" s="27">
+        <v>124033.17333333332</v>
+      </c>
+      <c r="H9" s="27">
+        <v>16178.239999999998</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2296.5333333333333</v>
+      </c>
+      <c r="J9" s="27">
+        <v>10119.1</v>
+      </c>
+      <c r="K9" s="27">
+        <v>287.06666666666666</v>
+      </c>
+      <c r="L9" s="27">
+        <v>7176.666666666667</v>
+      </c>
+      <c r="M9" s="27">
+        <v>109786.88</v>
+      </c>
+      <c r="N9" s="27">
+        <v>256169.38666666666</v>
+      </c>
+      <c r="O9" s="27">
+        <v>5197.0050000000001</v>
+      </c>
+      <c r="P9" s="27">
+        <v>1273144.2266666668</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>772980.42333333346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="27">
+        <v>10521.400000000001</v>
+      </c>
+      <c r="E10" s="27">
+        <v>336.71946000000003</v>
+      </c>
+      <c r="F10" s="27">
+        <v>255.09049999999999</v>
+      </c>
+      <c r="G10" s="27">
+        <v>14233.013333333334</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1856.4799999999998</v>
+      </c>
+      <c r="I10" s="27">
+        <v>14878.826666666668</v>
+      </c>
+      <c r="J10" s="27">
+        <v>65559.83</v>
+      </c>
+      <c r="K10" s="27">
+        <v>1859.8533333333335</v>
+      </c>
+      <c r="L10" s="27">
+        <v>46496.333333333336</v>
+      </c>
+      <c r="M10" s="27">
+        <v>985.74</v>
+      </c>
+      <c r="N10" s="27">
+        <v>2300.06</v>
+      </c>
+      <c r="O10" s="27">
+        <v>23274.255000000001</v>
+      </c>
+      <c r="P10" s="27">
+        <v>7626.3600000000006</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>4630.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="27">
+        <v>2597</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
+        <v>470464.69333333336</v>
+      </c>
+      <c r="H11" s="27">
+        <v>61364.959999999999</v>
+      </c>
+      <c r="I11" s="27">
+        <v>80.213333333333338</v>
+      </c>
+      <c r="J11" s="27">
+        <v>353.43999999999994</v>
+      </c>
+      <c r="K11" s="27">
+        <v>10.026666666666667</v>
+      </c>
+      <c r="L11" s="27">
+        <v>250.66666666666666</v>
+      </c>
+      <c r="M11" s="27">
+        <v>67274.759999999995</v>
+      </c>
+      <c r="N11" s="27">
+        <v>156974.44</v>
+      </c>
+      <c r="O11" s="27">
+        <v>1012.9950000000001</v>
+      </c>
+      <c r="P11" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="27">
+        <v>23980</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
+        <v>495940.10666666675</v>
+      </c>
+      <c r="H12" s="27">
+        <v>64687.840000000004</v>
+      </c>
+      <c r="I12" s="27">
+        <v>4112.4266666666672</v>
+      </c>
+      <c r="J12" s="27">
+        <v>18120.38</v>
+      </c>
+      <c r="K12" s="27">
+        <v>514.0533333333334</v>
+      </c>
+      <c r="L12" s="27">
+        <v>12851.333333333334</v>
+      </c>
+      <c r="M12" s="27">
+        <v>146220.34</v>
+      </c>
+      <c r="N12" s="27">
+        <v>341180.79333333333</v>
+      </c>
+      <c r="O12" s="27">
+        <v>13162.155000000001</v>
+      </c>
+      <c r="P12" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="27">
+        <v>118062.26666666668</v>
+      </c>
+      <c r="E13" s="27">
+        <v>9216.9702900000011</v>
+      </c>
+      <c r="F13" s="27">
+        <v>6982.5532499999999</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>95389.866666666669</v>
+      </c>
+      <c r="J13" s="27">
+        <v>420311.6</v>
+      </c>
+      <c r="K13" s="27">
+        <v>11923.733333333334</v>
+      </c>
+      <c r="L13" s="27">
+        <v>298093.33333333331</v>
+      </c>
+      <c r="M13" s="27">
+        <v>6525.26</v>
+      </c>
+      <c r="N13" s="27">
+        <v>15225.606666666667</v>
+      </c>
+      <c r="O13" s="27">
+        <v>8955.4500000000007</v>
+      </c>
+      <c r="P13" s="27">
+        <v>330531.60000000003</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>200679.90000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0</v>
+      </c>
+      <c r="E14" s="27">
+        <v>44200.286955000003</v>
+      </c>
+      <c r="F14" s="27">
+        <v>33485.065875</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>923377.70666666678</v>
+      </c>
+      <c r="J14" s="27">
+        <v>4068633.02</v>
+      </c>
+      <c r="K14" s="27">
+        <v>115422.21333333335</v>
+      </c>
+      <c r="L14" s="27">
+        <v>2885555.3333333335</v>
+      </c>
+      <c r="M14" s="27">
+        <v>266.90999999999997</v>
+      </c>
+      <c r="N14" s="27">
+        <v>622.79</v>
+      </c>
+      <c r="O14" s="27">
+        <v>24022.875</v>
+      </c>
+      <c r="P14" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="27">
+        <v>195487.8666666667</v>
+      </c>
+      <c r="E15" s="27">
+        <v>11.314215000000001</v>
+      </c>
+      <c r="F15" s="27">
+        <v>8.5713749999999997</v>
+      </c>
+      <c r="G15" s="27">
+        <v>546.48</v>
+      </c>
+      <c r="H15" s="27">
+        <v>71.28</v>
+      </c>
+      <c r="I15" s="27">
+        <v>2474.1333333333337</v>
+      </c>
+      <c r="J15" s="27">
+        <v>10901.65</v>
+      </c>
+      <c r="K15" s="27">
+        <v>309.26666666666671</v>
+      </c>
+      <c r="L15" s="27">
+        <v>7731.666666666667</v>
+      </c>
+      <c r="M15" s="27">
+        <v>113126.08999999998</v>
+      </c>
+      <c r="N15" s="27">
+        <v>263960.87666666665</v>
+      </c>
+      <c r="O15" s="27">
+        <v>8447.91</v>
+      </c>
+      <c r="P15" s="27">
+        <v>1112055.6533333336</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>675176.64666666673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="27">
+        <v>476117.4</v>
+      </c>
+      <c r="E16" s="27">
+        <v>55.395945000000005</v>
+      </c>
+      <c r="F16" s="27">
+        <v>41.966625000000001</v>
+      </c>
+      <c r="G16" s="27">
+        <v>238770.05333333334</v>
+      </c>
+      <c r="H16" s="27">
+        <v>31143.919999999998</v>
+      </c>
+      <c r="I16" s="27">
+        <v>2784.32</v>
+      </c>
+      <c r="J16" s="27">
+        <v>12268.41</v>
+      </c>
+      <c r="K16" s="27">
+        <v>348.04</v>
+      </c>
+      <c r="L16" s="27">
+        <v>8701</v>
+      </c>
+      <c r="M16" s="27">
+        <v>146022.31</v>
+      </c>
+      <c r="N16" s="27">
+        <v>340718.72333333333</v>
+      </c>
+      <c r="O16" s="27">
+        <v>1386.6299999999999</v>
+      </c>
+      <c r="P16" s="27">
+        <v>1636242.5333333334</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>993432.96666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="27">
+        <v>347408.46666666667</v>
+      </c>
+      <c r="E17" s="27">
+        <v>160.55737500000001</v>
+      </c>
+      <c r="F17" s="27">
+        <v>121.63437500000001</v>
+      </c>
+      <c r="G17" s="27">
+        <v>152530.48000000001</v>
+      </c>
+      <c r="H17" s="27">
+        <v>19895.28</v>
+      </c>
+      <c r="I17" s="27">
+        <v>9364.5866666666661</v>
+      </c>
+      <c r="J17" s="27">
+        <v>41262.71</v>
+      </c>
+      <c r="K17" s="27">
+        <v>1170.5733333333333</v>
+      </c>
+      <c r="L17" s="27">
+        <v>29264.333333333332</v>
+      </c>
+      <c r="M17" s="27">
+        <v>44239.090000000004</v>
+      </c>
+      <c r="N17" s="27">
+        <v>103224.54333333333</v>
+      </c>
+      <c r="O17" s="27">
+        <v>5645.9249999999993</v>
+      </c>
+      <c r="P17" s="27">
+        <v>1604521.6133333333</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>974173.83666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="27">
+        <v>161403.8666666667</v>
+      </c>
+      <c r="E18" s="27">
+        <v>17.678429999999999</v>
+      </c>
+      <c r="F18" s="27">
+        <v>13.392749999999999</v>
+      </c>
+      <c r="G18" s="27">
+        <v>8958.9600000000009</v>
+      </c>
+      <c r="H18" s="27">
+        <v>1168.56</v>
+      </c>
+      <c r="I18" s="27">
+        <v>727.78666666666675</v>
+      </c>
+      <c r="J18" s="27">
+        <v>3206.81</v>
+      </c>
+      <c r="K18" s="27">
+        <v>90.973333333333343</v>
+      </c>
+      <c r="L18" s="27">
+        <v>2274.3333333333335</v>
+      </c>
+      <c r="M18" s="27">
+        <v>134313.97</v>
+      </c>
+      <c r="N18" s="27">
+        <v>313399.26333333337</v>
+      </c>
+      <c r="O18" s="27">
+        <v>3608.91</v>
+      </c>
+      <c r="P18" s="27">
+        <v>1520192.9866666668</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>922974.31333333347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0</v>
+      </c>
+      <c r="E19" s="27">
+        <v>1000.1557500000001</v>
+      </c>
+      <c r="F19" s="27">
+        <v>757.69375000000002</v>
+      </c>
+      <c r="G19" s="27">
+        <v>0</v>
+      </c>
+      <c r="H19" s="27">
+        <v>0</v>
+      </c>
+      <c r="I19" s="27">
+        <v>1102155.0933333333</v>
+      </c>
+      <c r="J19" s="27">
+        <v>4856370.88</v>
+      </c>
+      <c r="K19" s="27">
+        <v>137769.38666666666</v>
+      </c>
+      <c r="L19" s="27">
+        <v>3444234.6666666665</v>
+      </c>
+      <c r="M19" s="27">
+        <v>526.89</v>
+      </c>
+      <c r="N19" s="27">
+        <v>1229.4100000000001</v>
+      </c>
+      <c r="O19" s="27">
+        <v>25322.61</v>
+      </c>
+      <c r="P19" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>53</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="27">
+        <v>32643</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0</v>
+      </c>
+      <c r="G20" s="27">
+        <v>443316.10666666669</v>
+      </c>
+      <c r="H20" s="27">
+        <v>57823.839999999997</v>
+      </c>
+      <c r="I20" s="27">
+        <v>650.13333333333333</v>
+      </c>
+      <c r="J20" s="27">
+        <v>2864.65</v>
+      </c>
+      <c r="K20" s="27">
+        <v>81.266666666666666</v>
+      </c>
+      <c r="L20" s="27">
+        <v>2031.6666666666667</v>
+      </c>
+      <c r="M20" s="27">
+        <v>48593.929999999993</v>
+      </c>
+      <c r="N20" s="27">
+        <v>113385.83666666666</v>
+      </c>
+      <c r="O20" s="27">
+        <v>1464.84</v>
+      </c>
+      <c r="P20" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="27">
+        <v>2153</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27">
+        <v>137738.72</v>
+      </c>
+      <c r="H21" s="27">
+        <v>17965.919999999998</v>
+      </c>
+      <c r="I21" s="27">
+        <v>200.42666666666668</v>
+      </c>
+      <c r="J21" s="27">
+        <v>883.13</v>
+      </c>
+      <c r="K21" s="27">
+        <v>25.053333333333335</v>
+      </c>
+      <c r="L21" s="27">
+        <v>626.33333333333337</v>
+      </c>
+      <c r="M21" s="27">
+        <v>13229.369999999999</v>
+      </c>
+      <c r="N21" s="27">
+        <v>30868.53</v>
+      </c>
+      <c r="O21" s="27">
+        <v>255.58499999999998</v>
+      </c>
+      <c r="P21" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>55</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="27">
+        <v>197564.13333333333</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
+        <v>0</v>
+      </c>
+      <c r="G22" s="27">
+        <v>639288.37333333329</v>
+      </c>
+      <c r="H22" s="27">
+        <v>83385.439999999988</v>
+      </c>
+      <c r="I22" s="27">
+        <v>13216.533333333333</v>
+      </c>
+      <c r="J22" s="27">
+        <v>58235.349999999991</v>
+      </c>
+      <c r="K22" s="27">
+        <v>1652.0666666666666</v>
+      </c>
+      <c r="L22" s="27">
+        <v>41301.666666666664</v>
+      </c>
+      <c r="M22" s="27">
+        <v>31329.760000000002</v>
+      </c>
+      <c r="N22" s="27">
+        <v>73102.773333333331</v>
+      </c>
+      <c r="O22" s="27">
+        <v>36090.074999999997</v>
+      </c>
+      <c r="P22" s="27">
+        <v>780876.22666666668</v>
+      </c>
+      <c r="Q22" s="27">
+        <v>474103.42333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="27">
+        <v>202021</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
+        <v>678414.7466666667</v>
+      </c>
+      <c r="H23" s="27">
+        <v>88488.88</v>
+      </c>
+      <c r="I23" s="27">
+        <v>934.18666666666672</v>
+      </c>
+      <c r="J23" s="27">
+        <v>4116.26</v>
+      </c>
+      <c r="K23" s="27">
+        <v>116.77333333333334</v>
+      </c>
+      <c r="L23" s="27">
+        <v>2919.3333333333335</v>
+      </c>
+      <c r="M23" s="27">
+        <v>80644.55</v>
+      </c>
+      <c r="N23" s="27">
+        <v>188170.61666666667</v>
+      </c>
+      <c r="O23" s="27">
+        <v>50.550000000000004</v>
+      </c>
+      <c r="P23" s="27">
+        <v>1312995.5066666668</v>
+      </c>
+      <c r="Q23" s="27">
+        <v>797175.8433333335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27">
+        <v>0</v>
+      </c>
+      <c r="G24" s="27">
+        <v>253024.53333333335</v>
+      </c>
+      <c r="H24" s="27">
+        <v>33003.200000000004</v>
+      </c>
+      <c r="I24" s="27">
+        <v>0</v>
+      </c>
+      <c r="J24" s="27">
+        <v>0</v>
+      </c>
+      <c r="K24" s="27">
+        <v>0</v>
+      </c>
+      <c r="L24" s="27">
+        <v>0</v>
+      </c>
+      <c r="M24" s="27">
+        <v>19054.14</v>
+      </c>
+      <c r="N24" s="27">
+        <v>44459.659999999996</v>
+      </c>
+      <c r="O24" s="27">
+        <v>46.08</v>
+      </c>
+      <c r="P24" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="27">
+        <v>98789.066666666666</v>
+      </c>
+      <c r="E25" s="27">
+        <v>20.15343</v>
+      </c>
+      <c r="F25" s="27">
+        <v>15.267749999999999</v>
+      </c>
+      <c r="G25" s="27">
+        <v>0</v>
+      </c>
+      <c r="H25" s="27">
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
+        <v>41.706666666666671</v>
+      </c>
+      <c r="J25" s="27">
+        <v>183.77</v>
+      </c>
+      <c r="K25" s="27">
+        <v>5.2133333333333338</v>
+      </c>
+      <c r="L25" s="27">
+        <v>130.33333333333334</v>
+      </c>
+      <c r="M25" s="27">
+        <v>151169.34</v>
+      </c>
+      <c r="N25" s="27">
+        <v>352728.46</v>
+      </c>
+      <c r="O25" s="27">
+        <v>468.12</v>
+      </c>
+      <c r="P25" s="27">
+        <v>339035.10666666675</v>
+      </c>
+      <c r="Q25" s="27">
+        <v>205842.74333333338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="27">
+        <v>91424.6</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
+        <v>0</v>
+      </c>
+      <c r="G26" s="27">
+        <v>222.64000000000001</v>
+      </c>
+      <c r="H26" s="27">
+        <v>29.04</v>
+      </c>
+      <c r="I26" s="27">
+        <v>1639.7866666666666</v>
+      </c>
+      <c r="J26" s="27">
+        <v>7225.3099999999995</v>
+      </c>
+      <c r="K26" s="27">
+        <v>204.97333333333333</v>
+      </c>
+      <c r="L26" s="27">
+        <v>5124.333333333333</v>
+      </c>
+      <c r="M26" s="27">
+        <v>38937.64</v>
+      </c>
+      <c r="N26" s="27">
+        <v>90854.493333333332</v>
+      </c>
+      <c r="O26" s="27">
+        <v>11103.69</v>
+      </c>
+      <c r="P26" s="27">
+        <v>554709.12</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>336787.68000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="27">
+        <v>206.5</v>
+      </c>
+      <c r="E27" s="27">
+        <v>22.737660000000002</v>
+      </c>
+      <c r="F27" s="27">
+        <v>17.2255</v>
+      </c>
+      <c r="G27" s="27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="27">
+        <v>3037.0133333333333</v>
+      </c>
+      <c r="J27" s="27">
+        <v>13381.839999999998</v>
+      </c>
+      <c r="K27" s="27">
+        <v>379.62666666666667</v>
+      </c>
+      <c r="L27" s="27">
+        <v>9490.6666666666661</v>
+      </c>
+      <c r="M27" s="27">
+        <v>42277.9</v>
+      </c>
+      <c r="N27" s="27">
+        <v>98648.433333333334</v>
+      </c>
+      <c r="O27" s="27">
+        <v>26.714999999999996</v>
+      </c>
+      <c r="P27" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="27">
+        <v>4.2</v>
+      </c>
+      <c r="E28" s="27">
+        <v>296.97541500000005</v>
+      </c>
+      <c r="F28" s="27">
+        <v>224.98137500000001</v>
+      </c>
+      <c r="G28" s="27">
+        <v>0</v>
+      </c>
+      <c r="H28" s="27">
+        <v>0</v>
+      </c>
+      <c r="I28" s="27">
+        <v>210.13333333333333</v>
+      </c>
+      <c r="J28" s="27">
+        <v>925.89999999999986</v>
+      </c>
+      <c r="K28" s="27">
+        <v>26.266666666666666</v>
+      </c>
+      <c r="L28" s="27">
+        <v>656.66666666666663</v>
+      </c>
+      <c r="M28" s="27">
+        <v>42694.33</v>
+      </c>
+      <c r="N28" s="27">
+        <v>99620.103333333333</v>
+      </c>
+      <c r="O28" s="27">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="P28" s="27">
+        <v>171885.84000000003</v>
+      </c>
+      <c r="Q28" s="27">
+        <v>104359.26000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="27">
+        <v>13230.933333333334</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0</v>
+      </c>
+      <c r="G29" s="27">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="H29" s="27">
+        <v>9.36</v>
+      </c>
+      <c r="I29" s="27">
+        <v>2705.92</v>
+      </c>
+      <c r="J29" s="27">
+        <v>11922.96</v>
+      </c>
+      <c r="K29" s="27">
+        <v>338.24</v>
+      </c>
+      <c r="L29" s="27">
+        <v>8456</v>
+      </c>
+      <c r="M29" s="27">
+        <v>107307.12999999999</v>
+      </c>
+      <c r="N29" s="27">
+        <v>250383.30333333332</v>
+      </c>
+      <c r="O29" s="27">
+        <v>15988.32</v>
+      </c>
+      <c r="P29" s="27">
+        <v>31478.533333333336</v>
+      </c>
+      <c r="Q29" s="27">
+        <v>19111.966666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="27">
+        <v>1030727.0666666667</v>
+      </c>
+      <c r="E30" s="27">
+        <v>56.946120000000001</v>
+      </c>
+      <c r="F30" s="27">
+        <v>43.140999999999998</v>
+      </c>
+      <c r="G30" s="27">
+        <v>1126710.5066666666</v>
+      </c>
+      <c r="H30" s="27">
+        <v>146962.23999999999</v>
+      </c>
+      <c r="I30" s="27">
+        <v>4101.4400000000005</v>
+      </c>
+      <c r="J30" s="27">
+        <v>18071.969999999998</v>
+      </c>
+      <c r="K30" s="27">
+        <v>512.68000000000006</v>
+      </c>
+      <c r="L30" s="27">
+        <v>12817</v>
+      </c>
+      <c r="M30" s="27">
+        <v>220776.63999999998</v>
+      </c>
+      <c r="N30" s="27">
+        <v>515145.49333333329</v>
+      </c>
+      <c r="O30" s="27">
+        <v>3366.63</v>
+      </c>
+      <c r="P30" s="27">
+        <v>1462594.7466666668</v>
+      </c>
+      <c r="Q30" s="27">
+        <v>888003.95333333348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>23</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="27">
+        <v>246947.26666666666</v>
+      </c>
+      <c r="E31" s="27">
+        <v>46.027410000000003</v>
+      </c>
+      <c r="F31" s="27">
+        <v>34.869250000000001</v>
+      </c>
+      <c r="G31" s="27">
+        <v>711006.66666666674</v>
+      </c>
+      <c r="H31" s="27">
+        <v>92740</v>
+      </c>
+      <c r="I31" s="27">
+        <v>707.4133333333333</v>
+      </c>
+      <c r="J31" s="27">
+        <v>3117.0399999999995</v>
+      </c>
+      <c r="K31" s="27">
+        <v>88.426666666666662</v>
+      </c>
+      <c r="L31" s="27">
+        <v>2210.6666666666665</v>
+      </c>
+      <c r="M31" s="27">
+        <v>267886.08000000002</v>
+      </c>
+      <c r="N31" s="27">
+        <v>625067.52000000002</v>
+      </c>
+      <c r="O31" s="27">
+        <v>283.84499999999997</v>
+      </c>
+      <c r="P31" s="27">
+        <v>1562330.9333333333</v>
+      </c>
+      <c r="Q31" s="27">
+        <v>948558.06666666665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>22</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0</v>
+      </c>
+      <c r="E32" s="27">
+        <v>23386.745580000003</v>
+      </c>
+      <c r="F32" s="27">
+        <v>17717.231500000002</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0</v>
+      </c>
+      <c r="H32" s="27">
+        <v>0</v>
+      </c>
+      <c r="I32" s="27">
+        <v>584359.36</v>
+      </c>
+      <c r="J32" s="27">
+        <v>2574833.4299999997</v>
+      </c>
+      <c r="K32" s="27">
+        <v>73044.92</v>
+      </c>
+      <c r="L32" s="27">
+        <v>1826123</v>
+      </c>
+      <c r="M32" s="27">
+        <v>24621.73</v>
+      </c>
+      <c r="N32" s="27">
+        <v>57450.703333333331</v>
+      </c>
+      <c r="O32" s="27">
+        <v>79907.384999999995</v>
+      </c>
+      <c r="P32" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>26</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="27">
+        <v>18679.733333333334</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0</v>
+      </c>
+      <c r="F33" s="27">
+        <v>0</v>
+      </c>
+      <c r="G33" s="27">
+        <v>984251.57333333348</v>
+      </c>
+      <c r="H33" s="27">
+        <v>128380.64</v>
+      </c>
+      <c r="I33" s="27">
+        <v>832.32</v>
+      </c>
+      <c r="J33" s="27">
+        <v>3667.41</v>
+      </c>
+      <c r="K33" s="27">
+        <v>104.04</v>
+      </c>
+      <c r="L33" s="27">
+        <v>2601</v>
+      </c>
+      <c r="M33" s="27">
+        <v>34824.299999999996</v>
+      </c>
+      <c r="N33" s="27">
+        <v>81256.7</v>
+      </c>
+      <c r="O33" s="27">
+        <v>10651.724999999999</v>
+      </c>
+      <c r="P33" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>25</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0</v>
+      </c>
+      <c r="E34" s="27">
+        <v>16271.490180000001</v>
+      </c>
+      <c r="F34" s="27">
+        <v>12326.886500000001</v>
+      </c>
+      <c r="G34" s="27">
+        <v>0</v>
+      </c>
+      <c r="H34" s="27">
+        <v>0</v>
+      </c>
+      <c r="I34" s="27">
+        <v>42831.146666666667</v>
+      </c>
+      <c r="J34" s="27">
+        <v>188724.74</v>
+      </c>
+      <c r="K34" s="27">
+        <v>5353.8933333333334</v>
+      </c>
+      <c r="L34" s="27">
+        <v>133847.33333333334</v>
+      </c>
+      <c r="M34" s="27">
+        <v>3249.47</v>
+      </c>
+      <c r="N34" s="27">
+        <v>7582.0966666666664</v>
+      </c>
+      <c r="O34" s="27">
+        <v>37648.455000000002</v>
+      </c>
+      <c r="P34" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>71</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="27">
+        <v>50886.600000000006</v>
+      </c>
+      <c r="E35" s="27">
+        <v>0</v>
+      </c>
+      <c r="F35" s="27">
+        <v>0</v>
+      </c>
+      <c r="G35" s="27">
+        <v>38622.826666666668</v>
+      </c>
+      <c r="H35" s="27">
+        <v>5037.76</v>
+      </c>
+      <c r="I35" s="27">
+        <v>2016.96</v>
+      </c>
+      <c r="J35" s="27">
+        <v>8887.23</v>
+      </c>
+      <c r="K35" s="27">
+        <v>252.12</v>
+      </c>
+      <c r="L35" s="27">
+        <v>6303</v>
+      </c>
+      <c r="M35" s="27">
+        <v>50491.21</v>
+      </c>
+      <c r="N35" s="27">
+        <v>117812.82333333333</v>
+      </c>
+      <c r="O35" s="27">
+        <v>4827.3150000000005</v>
+      </c>
+      <c r="P35" s="27">
+        <v>841669.08000000007</v>
+      </c>
+      <c r="Q35" s="27">
+        <v>511013.37000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>70</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="27">
+        <v>9320.4666666666672</v>
+      </c>
+      <c r="E36" s="27">
+        <v>0</v>
+      </c>
+      <c r="F36" s="27">
+        <v>0</v>
+      </c>
+      <c r="G36" s="27">
+        <v>307.28000000000003</v>
+      </c>
+      <c r="H36" s="27">
+        <v>40.08</v>
+      </c>
+      <c r="I36" s="27">
+        <v>10301.653333333334</v>
+      </c>
+      <c r="J36" s="27">
+        <v>45391.659999999996</v>
+      </c>
+      <c r="K36" s="27">
+        <v>1287.7066666666667</v>
+      </c>
+      <c r="L36" s="27">
+        <v>32192.666666666668</v>
+      </c>
+      <c r="M36" s="27">
+        <v>43744.75</v>
+      </c>
+      <c r="N36" s="27">
+        <v>102071.08333333334</v>
+      </c>
+      <c r="O36" s="27">
+        <v>13937.985000000001</v>
+      </c>
+      <c r="P36" s="27">
+        <v>179815.16</v>
+      </c>
+      <c r="Q36" s="27">
+        <v>109173.49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>24</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0</v>
+      </c>
+      <c r="E37" s="27">
+        <v>40.980555000000003</v>
+      </c>
+      <c r="F37" s="27">
+        <v>31.045874999999999</v>
+      </c>
+      <c r="G37" s="27">
+        <v>0</v>
+      </c>
+      <c r="H37" s="27">
+        <v>0</v>
+      </c>
+      <c r="I37" s="27">
+        <v>16</v>
+      </c>
+      <c r="J37" s="27">
+        <v>70.5</v>
+      </c>
+      <c r="K37" s="27">
+        <v>2</v>
+      </c>
+      <c r="L37" s="27">
+        <v>50</v>
+      </c>
+      <c r="M37" s="27">
+        <v>12510.89</v>
+      </c>
+      <c r="N37" s="27">
+        <v>29192.076666666664</v>
+      </c>
+      <c r="O37" s="27">
+        <v>0</v>
+      </c>
+      <c r="P37" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>29</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="27">
+        <v>0</v>
+      </c>
+      <c r="E38" s="27">
+        <v>52.819800000000001</v>
+      </c>
+      <c r="F38" s="27">
+        <v>40.015000000000001</v>
+      </c>
+      <c r="G38" s="27">
+        <v>0</v>
+      </c>
+      <c r="H38" s="27">
+        <v>0</v>
+      </c>
+      <c r="I38" s="27">
+        <v>9706.3466666666664</v>
+      </c>
+      <c r="J38" s="27">
+        <v>42768.59</v>
+      </c>
+      <c r="K38" s="27">
+        <v>1213.2933333333333</v>
+      </c>
+      <c r="L38" s="27">
+        <v>30332.333333333332</v>
+      </c>
+      <c r="M38" s="27">
+        <v>46999.33</v>
+      </c>
+      <c r="N38" s="27">
+        <v>109665.10333333333</v>
+      </c>
+      <c r="O38" s="27">
+        <v>16.087499999999999</v>
+      </c>
+      <c r="P38" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>32</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="27">
+        <v>0</v>
+      </c>
+      <c r="E39" s="27">
+        <v>10609.41387</v>
+      </c>
+      <c r="F39" s="27">
+        <v>8037.4347500000003</v>
+      </c>
+      <c r="G39" s="27">
+        <v>0</v>
+      </c>
+      <c r="H39" s="27">
+        <v>0</v>
+      </c>
+      <c r="I39" s="27">
+        <v>18069.226666666669</v>
+      </c>
+      <c r="J39" s="27">
+        <v>79617.53</v>
+      </c>
+      <c r="K39" s="27">
+        <v>2258.6533333333336</v>
+      </c>
+      <c r="L39" s="27">
+        <v>56466.333333333336</v>
+      </c>
+      <c r="M39" s="27">
+        <v>6940.1500000000005</v>
+      </c>
+      <c r="N39" s="27">
+        <v>16193.683333333334</v>
+      </c>
+      <c r="O39" s="27">
+        <v>15975.255000000001</v>
+      </c>
+      <c r="P39" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="27">
+        <v>0</v>
+      </c>
+      <c r="E40" s="27">
+        <v>2452.901715</v>
+      </c>
+      <c r="F40" s="27">
+        <v>1858.258875</v>
+      </c>
+      <c r="G40" s="27">
+        <v>0</v>
+      </c>
+      <c r="H40" s="27">
+        <v>0</v>
+      </c>
+      <c r="I40" s="27">
+        <v>222603.30666666667</v>
+      </c>
+      <c r="J40" s="27">
+        <v>980845.82</v>
+      </c>
+      <c r="K40" s="27">
+        <v>27825.413333333334</v>
+      </c>
+      <c r="L40" s="27">
+        <v>695635.33333333337</v>
+      </c>
+      <c r="M40" s="27">
+        <v>193.9</v>
+      </c>
+      <c r="N40" s="27">
+        <v>452.43333333333334</v>
+      </c>
+      <c r="O40" s="27">
+        <v>22591.68</v>
+      </c>
+      <c r="P40" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="27">
+        <v>0</v>
+      </c>
+      <c r="E41" s="27">
+        <v>1687.4157300000002</v>
+      </c>
+      <c r="F41" s="27">
+        <v>1278.3452500000001</v>
+      </c>
+      <c r="G41" s="27">
+        <v>0</v>
+      </c>
+      <c r="H41" s="27">
+        <v>0</v>
+      </c>
+      <c r="I41" s="27">
+        <v>69169.066666666666</v>
+      </c>
+      <c r="J41" s="27">
+        <v>304776.2</v>
+      </c>
+      <c r="K41" s="27">
+        <v>8646.1333333333332</v>
+      </c>
+      <c r="L41" s="27">
+        <v>216153.33333333334</v>
+      </c>
+      <c r="M41" s="27">
+        <v>13456.38</v>
+      </c>
+      <c r="N41" s="27">
+        <v>31398.22</v>
+      </c>
+      <c r="O41" s="27">
+        <v>40026.300000000003</v>
+      </c>
+      <c r="P41" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>34</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="27">
+        <v>16086.2</v>
+      </c>
+      <c r="E42" s="27">
+        <v>0</v>
+      </c>
+      <c r="F42" s="27">
+        <v>0</v>
+      </c>
+      <c r="G42" s="27">
+        <v>263887.28000000003</v>
+      </c>
+      <c r="H42" s="27">
+        <v>34420.080000000002</v>
+      </c>
+      <c r="I42" s="27">
+        <v>1241.8133333333333</v>
+      </c>
+      <c r="J42" s="27">
+        <v>5471.74</v>
+      </c>
+      <c r="K42" s="27">
+        <v>155.22666666666666</v>
+      </c>
+      <c r="L42" s="27">
+        <v>3880.6666666666665</v>
+      </c>
+      <c r="M42" s="27">
+        <v>63449.96</v>
+      </c>
+      <c r="N42" s="27">
+        <v>148049.90666666668</v>
+      </c>
+      <c r="O42" s="27">
+        <v>6619.0349999999999</v>
+      </c>
+      <c r="P42" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="27">
+        <v>157833.80000000002</v>
+      </c>
+      <c r="E43" s="27">
+        <v>122.10792000000001</v>
+      </c>
+      <c r="F43" s="27">
+        <v>92.506</v>
+      </c>
+      <c r="G43" s="27">
+        <v>1426707.7866666666</v>
+      </c>
+      <c r="H43" s="27">
+        <v>186092.31999999998</v>
+      </c>
+      <c r="I43" s="27">
+        <v>4584.5333333333328</v>
+      </c>
+      <c r="J43" s="27">
+        <v>20200.599999999999</v>
+      </c>
+      <c r="K43" s="27">
+        <v>573.06666666666661</v>
+      </c>
+      <c r="L43" s="27">
+        <v>14326.666666666666</v>
+      </c>
+      <c r="M43" s="27">
+        <v>136486.63</v>
+      </c>
+      <c r="N43" s="27">
+        <v>318468.80333333334</v>
+      </c>
+      <c r="O43" s="27">
+        <v>3235.7550000000001</v>
+      </c>
+      <c r="P43" s="27">
+        <v>1140802.4133333336</v>
+      </c>
+      <c r="Q43" s="27">
+        <v>692630.03666666674</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>39</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="27">
+        <v>1841.5333333333333</v>
+      </c>
+      <c r="E44" s="27">
+        <v>4680.2494200000001</v>
+      </c>
+      <c r="F44" s="27">
+        <v>3545.6435000000001</v>
+      </c>
+      <c r="G44" s="27">
+        <v>5937.68</v>
+      </c>
+      <c r="H44" s="27">
+        <v>774.48</v>
+      </c>
+      <c r="I44" s="27">
+        <v>8532.2666666666664</v>
+      </c>
+      <c r="J44" s="27">
+        <v>37595.299999999996</v>
+      </c>
+      <c r="K44" s="27">
+        <v>1066.5333333333333</v>
+      </c>
+      <c r="L44" s="27">
+        <v>26663.333333333332</v>
+      </c>
+      <c r="M44" s="27">
+        <v>41415.15</v>
+      </c>
+      <c r="N44" s="27">
+        <v>96635.349999999991</v>
+      </c>
+      <c r="O44" s="27">
+        <v>640.20000000000005</v>
+      </c>
+      <c r="P44" s="27">
+        <v>74690.186666666676</v>
+      </c>
+      <c r="Q44" s="27">
+        <v>45347.613333333342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>37</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="27">
+        <v>9267.4</v>
+      </c>
+      <c r="E45" s="27">
+        <v>17.898210000000002</v>
+      </c>
+      <c r="F45" s="27">
+        <v>13.55925</v>
+      </c>
+      <c r="G45" s="27">
+        <v>88256.82666666666</v>
+      </c>
+      <c r="H45" s="27">
+        <v>11511.759999999998</v>
+      </c>
+      <c r="I45" s="27">
+        <v>256</v>
+      </c>
+      <c r="J45" s="27">
+        <v>1128</v>
+      </c>
+      <c r="K45" s="27">
+        <v>32</v>
+      </c>
+      <c r="L45" s="27">
+        <v>800</v>
+      </c>
+      <c r="M45" s="27">
+        <v>214708.96999999997</v>
+      </c>
+      <c r="N45" s="27">
+        <v>500987.59666666662</v>
+      </c>
+      <c r="O45" s="27">
+        <v>76.545000000000002</v>
+      </c>
+      <c r="P45" s="27">
+        <v>137233.97333333333</v>
+      </c>
+      <c r="Q45" s="27">
+        <v>83320.626666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>38</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="27">
+        <v>109778.13333333333</v>
+      </c>
+      <c r="E46" s="27">
+        <v>57.865335000000002</v>
+      </c>
+      <c r="F46" s="27">
+        <v>43.837375000000002</v>
+      </c>
+      <c r="G46" s="27">
+        <v>457580.4</v>
+      </c>
+      <c r="H46" s="27">
+        <v>59684.399999999994</v>
+      </c>
+      <c r="I46" s="27">
+        <v>8924.16</v>
+      </c>
+      <c r="J46" s="27">
+        <v>39322.079999999994</v>
+      </c>
+      <c r="K46" s="27">
+        <v>1115.52</v>
+      </c>
+      <c r="L46" s="27">
+        <v>27888</v>
+      </c>
+      <c r="M46" s="27">
+        <v>173981.15</v>
+      </c>
+      <c r="N46" s="27">
+        <v>405956.01666666666</v>
+      </c>
+      <c r="O46" s="27">
+        <v>14185.98</v>
+      </c>
+      <c r="P46" s="27">
+        <v>284804.52</v>
+      </c>
+      <c r="Q46" s="27">
+        <v>172917.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>33</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="27">
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="E47" s="27">
+        <v>110.75229</v>
+      </c>
+      <c r="F47" s="27">
+        <v>83.90325</v>
+      </c>
+      <c r="G47" s="27">
+        <v>0</v>
+      </c>
+      <c r="H47" s="27">
+        <v>0</v>
+      </c>
+      <c r="I47" s="27">
+        <v>318.93333333333334</v>
+      </c>
+      <c r="J47" s="27">
+        <v>1405.3</v>
+      </c>
+      <c r="K47" s="27">
+        <v>39.866666666666667</v>
+      </c>
+      <c r="L47" s="27">
+        <v>996.66666666666663</v>
+      </c>
+      <c r="M47" s="27">
+        <v>110739.22999999998</v>
+      </c>
+      <c r="N47" s="27">
+        <v>258391.53666666665</v>
+      </c>
+      <c r="O47" s="27">
+        <v>0</v>
+      </c>
+      <c r="P47" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>41</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="27">
+        <v>15709.2</v>
+      </c>
+      <c r="E48" s="27">
+        <v>0</v>
+      </c>
+      <c r="F48" s="27">
+        <v>0</v>
+      </c>
+      <c r="G48" s="27">
+        <v>449653.06666666665</v>
+      </c>
+      <c r="H48" s="27">
+        <v>58650.399999999994</v>
+      </c>
+      <c r="I48" s="27">
+        <v>238.4</v>
+      </c>
+      <c r="J48" s="27">
+        <v>1050.45</v>
+      </c>
+      <c r="K48" s="27">
+        <v>29.8</v>
+      </c>
+      <c r="L48" s="27">
+        <v>745</v>
+      </c>
+      <c r="M48" s="27">
+        <v>36181.53</v>
+      </c>
+      <c r="N48" s="27">
+        <v>84423.569999999992</v>
+      </c>
+      <c r="O48" s="27">
+        <v>935.32499999999993</v>
+      </c>
+      <c r="P48" s="27">
+        <v>11467.400000000001</v>
+      </c>
+      <c r="Q48" s="27">
+        <v>6962.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>42</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="27">
+        <v>0</v>
+      </c>
+      <c r="E49" s="27">
+        <v>1516.8799799999999</v>
+      </c>
+      <c r="F49" s="27">
+        <v>1149.1514999999999</v>
+      </c>
+      <c r="G49" s="27">
+        <v>0</v>
+      </c>
+      <c r="H49" s="27">
+        <v>0</v>
+      </c>
+      <c r="I49" s="27">
+        <v>2089.4933333333333</v>
+      </c>
+      <c r="J49" s="27">
+        <v>9206.83</v>
+      </c>
+      <c r="K49" s="27">
+        <v>261.18666666666667</v>
+      </c>
+      <c r="L49" s="27">
+        <v>6529.666666666667</v>
+      </c>
+      <c r="M49" s="27">
+        <v>7</v>
+      </c>
+      <c r="N49" s="27">
+        <v>16.333333333333336</v>
+      </c>
+      <c r="O49" s="27">
+        <v>2591.1000000000004</v>
+      </c>
+      <c r="P49" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>31</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="27">
+        <v>80154.866666666669</v>
+      </c>
+      <c r="E50" s="27">
+        <v>14.488485000000001</v>
+      </c>
+      <c r="F50" s="27">
+        <v>10.976125</v>
+      </c>
+      <c r="G50" s="27">
+        <v>40110.773333333331</v>
+      </c>
+      <c r="H50" s="27">
+        <v>5231.8399999999992</v>
+      </c>
+      <c r="I50" s="27">
+        <v>11356.16</v>
+      </c>
+      <c r="J50" s="27">
+        <v>50038.079999999994</v>
+      </c>
+      <c r="K50" s="27">
+        <v>1419.52</v>
+      </c>
+      <c r="L50" s="27">
+        <v>35488</v>
+      </c>
+      <c r="M50" s="27">
+        <v>34857.479999999996</v>
+      </c>
+      <c r="N50" s="27">
+        <v>81334.12</v>
+      </c>
+      <c r="O50" s="27">
+        <v>1565.58</v>
+      </c>
+      <c r="P50" s="27">
+        <v>100870.56000000001</v>
+      </c>
+      <c r="Q50" s="27">
+        <v>61242.840000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>30</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="27">
+        <v>632.33333333333337</v>
+      </c>
+      <c r="E51" s="27">
+        <v>137018.91703500002</v>
+      </c>
+      <c r="F51" s="27">
+        <v>103802.209875</v>
+      </c>
+      <c r="G51" s="27">
+        <v>1143.2533333333336</v>
+      </c>
+      <c r="H51" s="27">
+        <v>149.12</v>
+      </c>
+      <c r="I51" s="27">
+        <v>108550.82666666666</v>
+      </c>
+      <c r="J51" s="27">
+        <v>478302.07999999996</v>
+      </c>
+      <c r="K51" s="27">
+        <v>13568.853333333333</v>
+      </c>
+      <c r="L51" s="27">
+        <v>339221.33333333331</v>
+      </c>
+      <c r="M51" s="27">
+        <v>2534.2799999999997</v>
+      </c>
+      <c r="N51" s="27">
+        <v>5913.32</v>
+      </c>
+      <c r="O51" s="27">
+        <v>11876.385</v>
+      </c>
+      <c r="P51" s="27">
+        <v>85816.826666666675</v>
+      </c>
+      <c r="Q51" s="27">
+        <v>52103.073333333341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="27">
+        <v>0</v>
+      </c>
+      <c r="E52" s="27">
+        <v>1190.00442</v>
+      </c>
+      <c r="F52" s="27">
+        <v>901.51850000000002</v>
+      </c>
+      <c r="G52" s="27">
+        <v>0</v>
+      </c>
+      <c r="H52" s="27">
+        <v>0</v>
+      </c>
+      <c r="I52" s="27">
+        <v>137032.21333333335</v>
+      </c>
+      <c r="J52" s="27">
+        <v>603798.18999999994</v>
+      </c>
+      <c r="K52" s="27">
+        <v>17129.026666666668</v>
+      </c>
+      <c r="L52" s="27">
+        <v>428225.66666666669</v>
+      </c>
+      <c r="M52" s="27">
+        <v>47.879999999999995</v>
+      </c>
+      <c r="N52" s="27">
+        <v>111.72</v>
+      </c>
+      <c r="O52" s="27">
+        <v>13376.189999999999</v>
+      </c>
+      <c r="P52" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="27">
+        <v>55982.333333333343</v>
+      </c>
+      <c r="E53" s="27">
+        <v>3668.7040500000003</v>
+      </c>
+      <c r="F53" s="27">
+        <v>2779.32125</v>
+      </c>
+      <c r="G53" s="27">
+        <v>1878.0266666666666</v>
+      </c>
+      <c r="H53" s="27">
+        <v>244.95999999999998</v>
+      </c>
+      <c r="I53" s="27">
+        <v>4482.7733333333335</v>
+      </c>
+      <c r="J53" s="27">
+        <v>19752.219999999998</v>
+      </c>
+      <c r="K53" s="27">
+        <v>560.34666666666669</v>
+      </c>
+      <c r="L53" s="27">
+        <v>14008.666666666666</v>
+      </c>
+      <c r="M53" s="27">
+        <v>33731.040000000001</v>
+      </c>
+      <c r="N53" s="27">
+        <v>78705.759999999995</v>
+      </c>
+      <c r="O53" s="27">
+        <v>1761.6000000000001</v>
+      </c>
+      <c r="P53" s="27">
+        <v>369893.44000000006</v>
+      </c>
+      <c r="Q53" s="27">
+        <v>224578.16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>50</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="27">
+        <v>29728.26666666667</v>
+      </c>
+      <c r="E54" s="27">
+        <v>596.12982</v>
+      </c>
+      <c r="F54" s="27">
+        <v>451.61349999999999</v>
+      </c>
+      <c r="G54" s="27">
+        <v>0</v>
+      </c>
+      <c r="H54" s="27">
+        <v>0</v>
+      </c>
+      <c r="I54" s="27">
+        <v>24592.426666666666</v>
+      </c>
+      <c r="J54" s="27">
+        <v>108360.37999999999</v>
+      </c>
+      <c r="K54" s="27">
+        <v>3074.0533333333333</v>
+      </c>
+      <c r="L54" s="27">
+        <v>76851.333333333328</v>
+      </c>
+      <c r="M54" s="27">
+        <v>1041.18</v>
+      </c>
+      <c r="N54" s="27">
+        <v>2429.42</v>
+      </c>
+      <c r="O54" s="27">
+        <v>24682.725000000002</v>
+      </c>
+      <c r="P54" s="27">
+        <v>2115.2133333333336</v>
+      </c>
+      <c r="Q54" s="27">
+        <v>1284.2366666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>48</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="27">
+        <v>44193.133333333331</v>
+      </c>
+      <c r="E55" s="27">
+        <v>6.0107850000000003</v>
+      </c>
+      <c r="F55" s="27">
+        <v>4.5536250000000003</v>
+      </c>
+      <c r="G55" s="27">
+        <v>0</v>
+      </c>
+      <c r="H55" s="27">
+        <v>0</v>
+      </c>
+      <c r="I55" s="27">
+        <v>816.5333333333333</v>
+      </c>
+      <c r="J55" s="27">
+        <v>3597.8499999999995</v>
+      </c>
+      <c r="K55" s="27">
+        <v>102.06666666666666</v>
+      </c>
+      <c r="L55" s="27">
+        <v>2551.6666666666665</v>
+      </c>
+      <c r="M55" s="27">
+        <v>200290.99999999997</v>
+      </c>
+      <c r="N55" s="27">
+        <v>467345.66666666663</v>
+      </c>
+      <c r="O55" s="27">
+        <v>4396.3500000000004</v>
+      </c>
+      <c r="P55" s="27">
+        <v>411885.60000000003</v>
+      </c>
+      <c r="Q55" s="27">
+        <v>250073.40000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>63</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="27">
+        <v>238809.40000000002</v>
+      </c>
+      <c r="E56" s="27">
+        <v>0</v>
+      </c>
+      <c r="F56" s="27">
+        <v>0</v>
+      </c>
+      <c r="G56" s="27">
+        <v>220013.70666666669</v>
+      </c>
+      <c r="H56" s="27">
+        <v>28697.439999999999</v>
+      </c>
+      <c r="I56" s="27">
+        <v>26646.080000000002</v>
+      </c>
+      <c r="J56" s="27">
+        <v>117409.29</v>
+      </c>
+      <c r="K56" s="27">
+        <v>3330.76</v>
+      </c>
+      <c r="L56" s="27">
+        <v>83269</v>
+      </c>
+      <c r="M56" s="27">
+        <v>43389.499999999993</v>
+      </c>
+      <c r="N56" s="27">
+        <v>101242.16666666666</v>
+      </c>
+      <c r="O56" s="27">
+        <v>2720.6849999999999</v>
+      </c>
+      <c r="P56" s="27">
+        <v>1111908</v>
+      </c>
+      <c r="Q56" s="27">
+        <v>675087</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>57</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="27">
+        <v>81531.666666666672</v>
+      </c>
+      <c r="E57" s="27">
+        <v>7.2381375000000006</v>
+      </c>
+      <c r="F57" s="27">
+        <v>5.4834375</v>
+      </c>
+      <c r="G57" s="27">
+        <v>308.2</v>
+      </c>
+      <c r="H57" s="27">
+        <v>40.199999999999996</v>
+      </c>
+      <c r="I57" s="27">
+        <v>8605.2266666666656</v>
+      </c>
+      <c r="J57" s="27">
+        <v>37916.78</v>
+      </c>
+      <c r="K57" s="27">
+        <v>1075.6533333333332</v>
+      </c>
+      <c r="L57" s="27">
+        <v>26891.333333333332</v>
+      </c>
+      <c r="M57" s="27">
+        <v>153823.18</v>
+      </c>
+      <c r="N57" s="27">
+        <v>358920.75333333336</v>
+      </c>
+      <c r="O57" s="27">
+        <v>16546.68</v>
+      </c>
+      <c r="P57" s="27">
+        <v>223087.2</v>
+      </c>
+      <c r="Q57" s="27">
+        <v>135445.80000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>60</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="27">
+        <v>0</v>
+      </c>
+      <c r="E58" s="27">
+        <v>2.9898000000000002</v>
+      </c>
+      <c r="F58" s="27">
+        <v>2.2650000000000001</v>
+      </c>
+      <c r="G58" s="27">
+        <v>0</v>
+      </c>
+      <c r="H58" s="27">
+        <v>0</v>
+      </c>
+      <c r="I58" s="27">
+        <v>53.546666666666674</v>
+      </c>
+      <c r="J58" s="27">
+        <v>235.94</v>
+      </c>
+      <c r="K58" s="27">
+        <v>6.6933333333333342</v>
+      </c>
+      <c r="L58" s="27">
+        <v>167.33333333333334</v>
+      </c>
+      <c r="M58" s="27">
+        <v>2834.44</v>
+      </c>
+      <c r="N58" s="27">
+        <v>6613.6933333333336</v>
+      </c>
+      <c r="O58" s="27">
+        <v>0</v>
+      </c>
+      <c r="P58" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>62</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="27">
+        <v>0</v>
+      </c>
+      <c r="E59" s="27">
+        <v>293.20516500000002</v>
+      </c>
+      <c r="F59" s="27">
+        <v>222.125125</v>
+      </c>
+      <c r="G59" s="27">
+        <v>0</v>
+      </c>
+      <c r="H59" s="27">
+        <v>0</v>
+      </c>
+      <c r="I59" s="27">
+        <v>94.933333333333337</v>
+      </c>
+      <c r="J59" s="27">
+        <v>418.3</v>
+      </c>
+      <c r="K59" s="27">
+        <v>11.866666666666667</v>
+      </c>
+      <c r="L59" s="27">
+        <v>296.66666666666669</v>
+      </c>
+      <c r="M59" s="27">
+        <v>727.16</v>
+      </c>
+      <c r="N59" s="27">
+        <v>1696.7066666666665</v>
+      </c>
+      <c r="O59" s="27">
+        <v>0</v>
+      </c>
+      <c r="P59" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>61</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="27">
+        <v>0</v>
+      </c>
+      <c r="E60" s="27">
+        <v>19114.155060000001</v>
+      </c>
+      <c r="F60" s="27">
+        <v>14480.4205</v>
+      </c>
+      <c r="G60" s="27">
+        <v>0</v>
+      </c>
+      <c r="H60" s="27">
+        <v>0</v>
+      </c>
+      <c r="I60" s="27">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="J60" s="27">
+        <v>82.25</v>
+      </c>
+      <c r="K60" s="27">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="L60" s="27">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="M60" s="27">
+        <v>315.56</v>
+      </c>
+      <c r="N60" s="27">
+        <v>736.30666666666673</v>
+      </c>
+      <c r="O60" s="27">
+        <v>0</v>
+      </c>
+      <c r="P60" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>64</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="27">
+        <v>26483.4</v>
+      </c>
+      <c r="E61" s="27">
+        <v>131.737155</v>
+      </c>
+      <c r="F61" s="27">
+        <v>99.800875000000005</v>
+      </c>
+      <c r="G61" s="27">
+        <v>309184.40000000002</v>
+      </c>
+      <c r="H61" s="27">
+        <v>40328.400000000001</v>
+      </c>
+      <c r="I61" s="27">
+        <v>5805.3333333333339</v>
+      </c>
+      <c r="J61" s="27">
+        <v>25579.75</v>
+      </c>
+      <c r="K61" s="27">
+        <v>725.66666666666674</v>
+      </c>
+      <c r="L61" s="27">
+        <v>18141.666666666668</v>
+      </c>
+      <c r="M61" s="27">
+        <v>41407.729999999996</v>
+      </c>
+      <c r="N61" s="27">
+        <v>96618.036666666667</v>
+      </c>
+      <c r="O61" s="27">
+        <v>91.844999999999999</v>
+      </c>
+      <c r="P61" s="27">
+        <v>279363.7466666667</v>
+      </c>
+      <c r="Q61" s="27">
+        <v>169613.70333333334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>59</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="27">
+        <v>0</v>
+      </c>
+      <c r="E62" s="27">
+        <v>1079.6672700000001</v>
+      </c>
+      <c r="F62" s="27">
+        <v>817.92975000000001</v>
+      </c>
+      <c r="G62" s="27">
+        <v>0</v>
+      </c>
+      <c r="H62" s="27">
+        <v>0</v>
+      </c>
+      <c r="I62" s="27">
+        <v>95211.733333333337</v>
+      </c>
+      <c r="J62" s="27">
+        <v>419526.7</v>
+      </c>
+      <c r="K62" s="27">
+        <v>11901.466666666667</v>
+      </c>
+      <c r="L62" s="27">
+        <v>297536.66666666669</v>
+      </c>
+      <c r="M62" s="27">
+        <v>1616.51</v>
+      </c>
+      <c r="N62" s="27">
+        <v>3771.8566666666666</v>
+      </c>
+      <c r="O62" s="27">
+        <v>18735.300000000003</v>
+      </c>
+      <c r="P62" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>56</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="27">
+        <v>123231.33333333333</v>
+      </c>
+      <c r="E63" s="27">
+        <v>12.961327500000001</v>
+      </c>
+      <c r="F63" s="27">
+        <v>9.8191875</v>
+      </c>
+      <c r="G63" s="27">
+        <v>64474.21333333334</v>
+      </c>
+      <c r="H63" s="27">
+        <v>8409.68</v>
+      </c>
+      <c r="I63" s="27">
+        <v>3107.2000000000003</v>
+      </c>
+      <c r="J63" s="27">
+        <v>13691.099999999999</v>
+      </c>
+      <c r="K63" s="27">
+        <v>388.40000000000003</v>
+      </c>
+      <c r="L63" s="27">
+        <v>9710</v>
+      </c>
+      <c r="M63" s="27">
+        <v>214863.81</v>
+      </c>
+      <c r="N63" s="27">
+        <v>501348.89</v>
+      </c>
+      <c r="O63" s="27">
+        <v>15496.560000000001</v>
+      </c>
+      <c r="P63" s="27">
+        <v>39918.480000000003</v>
+      </c>
+      <c r="Q63" s="27">
+        <v>24236.22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>65</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="27">
+        <v>13</v>
+      </c>
+      <c r="E64" s="27">
+        <v>0</v>
+      </c>
+      <c r="F64" s="27">
+        <v>0</v>
+      </c>
+      <c r="G64" s="27">
+        <v>0</v>
+      </c>
+      <c r="H64" s="27">
+        <v>0</v>
+      </c>
+      <c r="I64" s="27">
+        <v>24.533333333333335</v>
+      </c>
+      <c r="J64" s="27">
+        <v>108.1</v>
+      </c>
+      <c r="K64" s="27">
+        <v>3.0666666666666669</v>
+      </c>
+      <c r="L64" s="27">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="M64" s="27">
+        <v>42533.61</v>
+      </c>
+      <c r="N64" s="27">
+        <v>99245.09</v>
+      </c>
+      <c r="O64" s="27">
+        <v>0</v>
+      </c>
+      <c r="P64" s="27">
+        <v>47255.973333333342</v>
+      </c>
+      <c r="Q64" s="27">
+        <v>28691.126666666671</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>58</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="27">
+        <v>0</v>
+      </c>
+      <c r="E65" s="27">
+        <v>2244.8817599999998</v>
+      </c>
+      <c r="F65" s="27">
+        <v>1700.6679999999999</v>
+      </c>
+      <c r="G65" s="27">
+        <v>0</v>
+      </c>
+      <c r="H65" s="27">
+        <v>0</v>
+      </c>
+      <c r="I65" s="27">
+        <v>59119.466666666674</v>
+      </c>
+      <c r="J65" s="27">
+        <v>260495.15</v>
+      </c>
+      <c r="K65" s="27">
+        <v>7389.9333333333343</v>
+      </c>
+      <c r="L65" s="27">
+        <v>184748.33333333334</v>
+      </c>
+      <c r="M65" s="27">
+        <v>16565.43</v>
+      </c>
+      <c r="N65" s="27">
+        <v>38652.67</v>
+      </c>
+      <c r="O65" s="27">
+        <v>84048.75</v>
+      </c>
+      <c r="P65" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>66</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="27">
+        <v>54974.333333333343</v>
+      </c>
+      <c r="E66" s="27">
+        <v>0</v>
+      </c>
+      <c r="F66" s="27">
+        <v>0</v>
+      </c>
+      <c r="G66" s="27">
+        <v>134343.30666666667</v>
+      </c>
+      <c r="H66" s="27">
+        <v>17523.04</v>
+      </c>
+      <c r="I66" s="27">
+        <v>1536</v>
+      </c>
+      <c r="J66" s="27">
+        <v>6768</v>
+      </c>
+      <c r="K66" s="27">
+        <v>192</v>
+      </c>
+      <c r="L66" s="27">
+        <v>4800</v>
+      </c>
+      <c r="M66" s="27">
+        <v>124915.34999999999</v>
+      </c>
+      <c r="N66" s="27">
+        <v>291469.15000000002</v>
+      </c>
+      <c r="O66" s="27">
+        <v>2261.61</v>
+      </c>
+      <c r="P66" s="27">
+        <v>671693.4933333334</v>
+      </c>
+      <c r="Q66" s="27">
+        <v>407813.90666666673</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>67</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="27">
+        <v>40167.733333333337</v>
+      </c>
+      <c r="E67" s="27">
+        <v>16.5396</v>
+      </c>
+      <c r="F67" s="27">
+        <v>12.53</v>
+      </c>
+      <c r="G67" s="27">
+        <v>102626.61333333334</v>
+      </c>
+      <c r="H67" s="27">
+        <v>13386.08</v>
+      </c>
+      <c r="I67" s="27">
+        <v>1283.3066666666668</v>
+      </c>
+      <c r="J67" s="27">
+        <v>5654.57</v>
+      </c>
+      <c r="K67" s="27">
+        <v>160.41333333333336</v>
+      </c>
+      <c r="L67" s="27">
+        <v>4010.3333333333335</v>
+      </c>
+      <c r="M67" s="27">
+        <v>168901.03999999998</v>
+      </c>
+      <c r="N67" s="27">
+        <v>394102.42666666664</v>
+      </c>
+      <c r="O67" s="27">
+        <v>219.76499999999999</v>
+      </c>
+      <c r="P67" s="27">
+        <v>1205846.8800000001</v>
+      </c>
+      <c r="Q67" s="27">
+        <v>732121.32000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>68</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="27">
+        <v>0</v>
+      </c>
+      <c r="E68" s="27">
+        <v>24596.14443</v>
+      </c>
+      <c r="F68" s="27">
+        <v>18633.442749999998</v>
+      </c>
+      <c r="G68" s="27">
+        <v>0</v>
+      </c>
+      <c r="H68" s="27">
+        <v>0</v>
+      </c>
+      <c r="I68" s="27">
+        <v>1257200</v>
+      </c>
+      <c r="J68" s="27">
+        <v>5539537.5</v>
+      </c>
+      <c r="K68" s="27">
+        <v>157150</v>
+      </c>
+      <c r="L68" s="27">
+        <v>3928750</v>
+      </c>
+      <c r="M68" s="27">
+        <v>1652.84</v>
+      </c>
+      <c r="N68" s="27">
+        <v>3856.6266666666666</v>
+      </c>
+      <c r="O68" s="27">
+        <v>93932.654999999999</v>
+      </c>
+      <c r="P68" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>69</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" s="27">
+        <v>101806.40000000001</v>
+      </c>
+      <c r="E69" s="27">
+        <v>72.389625000000009</v>
+      </c>
+      <c r="F69" s="27">
+        <v>54.840625000000003</v>
+      </c>
+      <c r="G69" s="27">
+        <v>120.21333333333332</v>
+      </c>
+      <c r="H69" s="27">
+        <v>15.679999999999998</v>
+      </c>
+      <c r="I69" s="27">
+        <v>1992.7466666666667</v>
+      </c>
+      <c r="J69" s="27">
+        <v>8780.5399999999991</v>
+      </c>
+      <c r="K69" s="27">
+        <v>249.09333333333333</v>
+      </c>
+      <c r="L69" s="27">
+        <v>6227.333333333333</v>
+      </c>
+      <c r="M69" s="27">
+        <v>233343.32</v>
+      </c>
+      <c r="N69" s="27">
+        <v>544467.7466666667</v>
+      </c>
+      <c r="O69" s="27">
+        <v>9228.375</v>
+      </c>
+      <c r="P69" s="27">
+        <v>359540.53333333333</v>
+      </c>
+      <c r="Q69" s="27">
+        <v>218292.46666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>17</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="27">
+        <v>103113.66666666667</v>
+      </c>
+      <c r="E70" s="27">
+        <v>78.247125000000011</v>
+      </c>
+      <c r="F70" s="27">
+        <v>59.278125000000003</v>
+      </c>
+      <c r="G70" s="27">
+        <v>1000344.2133333335</v>
+      </c>
+      <c r="H70" s="27">
+        <v>130479.68000000001</v>
+      </c>
+      <c r="I70" s="27">
+        <v>391.57333333333338</v>
+      </c>
+      <c r="J70" s="27">
+        <v>1725.3700000000001</v>
+      </c>
+      <c r="K70" s="27">
+        <v>48.946666666666673</v>
+      </c>
+      <c r="L70" s="27">
+        <v>1223.6666666666667</v>
+      </c>
+      <c r="M70" s="27">
+        <v>31548.58</v>
+      </c>
+      <c r="N70" s="27">
+        <v>73613.353333333333</v>
+      </c>
+      <c r="O70" s="27">
+        <v>436.38</v>
+      </c>
+      <c r="P70" s="27">
+        <v>22300.133333333335</v>
+      </c>
+      <c r="Q70" s="27">
+        <v>13539.366666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>15</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="27">
+        <v>0</v>
+      </c>
+      <c r="E71" s="27">
+        <v>374.42295000000001</v>
+      </c>
+      <c r="F71" s="27">
+        <v>283.65375</v>
+      </c>
+      <c r="G71" s="27">
+        <v>0</v>
+      </c>
+      <c r="H71" s="27">
+        <v>0</v>
+      </c>
+      <c r="I71" s="27">
+        <v>239474.45333333334</v>
+      </c>
+      <c r="J71" s="27">
+        <v>1055184.3099999998</v>
+      </c>
+      <c r="K71" s="27">
+        <v>29934.306666666667</v>
+      </c>
+      <c r="L71" s="27">
+        <v>748357.66666666663</v>
+      </c>
+      <c r="M71" s="27">
+        <v>945.06999999999994</v>
+      </c>
+      <c r="N71" s="27">
+        <v>2205.163333333333</v>
+      </c>
+      <c r="O71" s="27">
+        <v>53664.930000000008</v>
+      </c>
+      <c r="P71" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>16</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="27">
+        <v>0</v>
+      </c>
+      <c r="E72" s="27">
+        <v>2373.5538750000001</v>
+      </c>
+      <c r="F72" s="27">
+        <v>1798.1468749999999</v>
+      </c>
+      <c r="G72" s="27">
+        <v>0</v>
+      </c>
+      <c r="H72" s="27">
+        <v>0</v>
+      </c>
+      <c r="I72" s="27">
+        <v>53008.426666666674</v>
+      </c>
+      <c r="J72" s="27">
+        <v>233568.38</v>
+      </c>
+      <c r="K72" s="27">
+        <v>6626.0533333333342</v>
+      </c>
+      <c r="L72" s="27">
+        <v>165651.33333333334</v>
+      </c>
+      <c r="M72" s="27">
+        <v>1296.68</v>
+      </c>
+      <c r="N72" s="27">
+        <v>3025.5866666666666</v>
+      </c>
+      <c r="O72" s="27">
+        <v>13527.435000000001</v>
+      </c>
+      <c r="P72" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>77</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="27">
+        <v>333428.93333333335</v>
+      </c>
+      <c r="E73" s="27">
+        <v>15.3536625</v>
+      </c>
+      <c r="F73" s="27">
+        <v>11.631562499999999</v>
+      </c>
+      <c r="G73" s="27">
+        <v>142744.13333333333</v>
+      </c>
+      <c r="H73" s="27">
+        <v>18618.8</v>
+      </c>
+      <c r="I73" s="27">
+        <v>10031.466666666667</v>
+      </c>
+      <c r="J73" s="27">
+        <v>44201.149999999994</v>
+      </c>
+      <c r="K73" s="27">
+        <v>1253.9333333333334</v>
+      </c>
+      <c r="L73" s="27">
+        <v>31348.333333333332</v>
+      </c>
+      <c r="M73" s="27">
+        <v>291717.44</v>
+      </c>
+      <c r="N73" s="27">
+        <v>680674.02666666673</v>
+      </c>
+      <c r="O73" s="27">
+        <v>26226.78</v>
+      </c>
+      <c r="P73" s="27">
+        <v>16359.000000000002</v>
+      </c>
+      <c r="Q73" s="27">
+        <v>9932.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>74</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="27">
+        <v>234212.93333333335</v>
+      </c>
+      <c r="E74" s="27">
+        <v>4.65564</v>
+      </c>
+      <c r="F74" s="27">
+        <v>3.5270000000000001</v>
+      </c>
+      <c r="G74" s="27">
+        <v>4130.1866666666665</v>
+      </c>
+      <c r="H74" s="27">
+        <v>538.71999999999991</v>
+      </c>
+      <c r="I74" s="27">
+        <v>11335.253333333332</v>
+      </c>
+      <c r="J74" s="27">
+        <v>49945.959999999992</v>
+      </c>
+      <c r="K74" s="27">
+        <v>1416.9066666666665</v>
+      </c>
+      <c r="L74" s="27">
+        <v>35422.666666666664</v>
+      </c>
+      <c r="M74" s="27">
+        <v>150681.85999999999</v>
+      </c>
+      <c r="N74" s="27">
+        <v>351591.00666666665</v>
+      </c>
+      <c r="O74" s="27">
+        <v>25189.98</v>
+      </c>
+      <c r="P74" s="27">
+        <v>1750666.9600000002</v>
+      </c>
+      <c r="Q74" s="27">
+        <v>1062904.9400000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>76</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="27">
+        <v>128164.86666666668</v>
+      </c>
+      <c r="E75" s="27">
+        <v>0</v>
+      </c>
+      <c r="F75" s="27">
+        <v>0</v>
+      </c>
+      <c r="G75" s="27">
+        <v>273489.62666666665</v>
+      </c>
+      <c r="H75" s="27">
+        <v>35672.559999999998</v>
+      </c>
+      <c r="I75" s="27">
+        <v>3573.2266666666669</v>
+      </c>
+      <c r="J75" s="27">
+        <v>15744.53</v>
+      </c>
+      <c r="K75" s="27">
+        <v>446.65333333333336</v>
+      </c>
+      <c r="L75" s="27">
+        <v>11166.333333333334</v>
+      </c>
+      <c r="M75" s="27">
+        <v>56181.509999999995</v>
+      </c>
+      <c r="N75" s="27">
+        <v>131090.19</v>
+      </c>
+      <c r="O75" s="27">
+        <v>1360.1849999999999</v>
+      </c>
+      <c r="P75" s="27">
+        <v>628570.32000000007</v>
+      </c>
+      <c r="Q75" s="27">
+        <v>381631.98000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="27">
+        <v>20604.800000000003</v>
+      </c>
+      <c r="E76" s="27">
+        <v>0</v>
+      </c>
+      <c r="F76" s="27">
+        <v>0</v>
+      </c>
+      <c r="G76" s="27">
+        <v>303416.61333333334</v>
+      </c>
+      <c r="H76" s="27">
+        <v>39576.080000000002</v>
+      </c>
+      <c r="I76" s="27">
+        <v>732.69333333333327</v>
+      </c>
+      <c r="J76" s="27">
+        <v>3228.4299999999994</v>
+      </c>
+      <c r="K76" s="27">
+        <v>91.586666666666659</v>
+      </c>
+      <c r="L76" s="27">
+        <v>2289.6666666666665</v>
+      </c>
+      <c r="M76" s="27">
+        <v>72054.290000000008</v>
+      </c>
+      <c r="N76" s="27">
+        <v>168126.67666666667</v>
+      </c>
+      <c r="O76" s="27">
+        <v>774.62999999999988</v>
+      </c>
+      <c r="P76" s="27">
+        <v>220050.88000000003</v>
+      </c>
+      <c r="Q76" s="27">
+        <v>133602.32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>47</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="27">
+        <v>0</v>
+      </c>
+      <c r="E77" s="27">
+        <v>1066.9777800000002</v>
+      </c>
+      <c r="F77" s="27">
+        <v>808.31650000000002</v>
+      </c>
+      <c r="G77" s="27">
+        <v>0</v>
+      </c>
+      <c r="H77" s="27">
+        <v>0</v>
+      </c>
+      <c r="I77" s="27">
+        <v>3504.2133333333331</v>
+      </c>
+      <c r="J77" s="27">
+        <v>15440.439999999999</v>
+      </c>
+      <c r="K77" s="27">
+        <v>438.02666666666664</v>
+      </c>
+      <c r="L77" s="27">
+        <v>10950.666666666666</v>
+      </c>
+      <c r="M77" s="27">
+        <v>1569.75</v>
+      </c>
+      <c r="N77" s="27">
+        <v>3662.75</v>
+      </c>
+      <c r="O77" s="27">
+        <v>48607.635000000002</v>
+      </c>
+      <c r="P77" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>46</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="27">
+        <v>67709.066666666666</v>
+      </c>
+      <c r="E78" s="27">
+        <v>8.8392149999999994</v>
+      </c>
+      <c r="F78" s="27">
+        <v>6.6963749999999997</v>
+      </c>
+      <c r="G78" s="27">
+        <v>30.666666666666671</v>
+      </c>
+      <c r="H78" s="27">
+        <v>4</v>
+      </c>
+      <c r="I78" s="27">
+        <v>1298.56</v>
+      </c>
+      <c r="J78" s="27">
+        <v>5721.78</v>
+      </c>
+      <c r="K78" s="27">
+        <v>162.32</v>
+      </c>
+      <c r="L78" s="27">
+        <v>4058</v>
+      </c>
+      <c r="M78" s="27">
+        <v>94468.989999999991</v>
+      </c>
+      <c r="N78" s="27">
+        <v>220427.64333333331</v>
+      </c>
+      <c r="O78" s="27">
+        <v>4698.375</v>
+      </c>
+      <c r="P78" s="27">
+        <v>237864.94666666668</v>
+      </c>
+      <c r="Q78" s="27">
+        <v>144418.00333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{EF40C198-E2A7-43C0-B34C-4E400FD0A220}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q78">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FC76C1-EEFB-410C-882F-407CDAD472BB}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="12.77734375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="31"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="31">
+        <v>1800</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="31">
+        <v>238</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="31">
+        <f>MIN(D2*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>8.6708160000000003</v>
+      </c>
+      <c r="G2" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F2</f>
+        <v>0.93772686940388794</v>
+      </c>
+      <c r="J2" s="2">
+        <f>D4*'Transportation Cost Calculation'!$D$20/1000</f>
+        <v>33.536748960000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="31">
+        <v>5000</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="31">
+        <v>151.91</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="31">
+        <f>MIN(D3*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>5.5343851199999996</v>
+      </c>
+      <c r="G3" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F3</f>
+        <v>1.4691527543817084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="31">
+        <v>920.53</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="31">
+        <f>MIN(D4*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F4</f>
+        <v>0.50817857142857137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="31">
+        <v>1500</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="31">
+        <v>81.61</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="31">
+        <f>MIN(D5*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>2.9732155200000001</v>
+      </c>
+      <c r="G5" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F5</f>
+        <v>2.7347015674319977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="31">
+        <v>500</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="31">
+        <v>182.38</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="31">
+        <f>MIN(D6*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>6.6444681600000006</v>
+      </c>
+      <c r="G6" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F6</f>
+        <v>1.2237032290718572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="31">
+        <v>50</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="31">
+        <v>380</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="31">
+        <f>MIN(D7*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>13.844160000000002</v>
+      </c>
+      <c r="G7" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F7</f>
+        <v>0.58731314452138239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="31">
+        <v>500</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="31">
+        <v>223.78399999999999</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="31">
+        <f>MIN(D8*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>8.1528986880000005</v>
+      </c>
+      <c r="G8" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F8</f>
+        <v>0.99729647748777983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="31">
+        <v>3200</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="31">
+        <v>400</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="31">
+        <f>MIN(D9*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>14.572800000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F9</f>
+        <v>0.55794748729531329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="31">
+        <v>500</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="31">
+        <v>370</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="31">
+        <f>MIN(D10*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>13.479839999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F10</f>
+        <v>0.60318647275169013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="31">
+        <v>1500</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="31">
+        <v>356.065</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="31">
+        <f>MIN(D11*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>12.972160080000002</v>
+      </c>
+      <c r="G11" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F11</f>
+        <v>0.62679284658173451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="31">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="31">
+        <v>178.255</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="31">
+        <f>MIN(D12*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>6.4941861599999999</v>
+      </c>
+      <c r="G12" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F12</f>
+        <v>1.2520209526696324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="31">
+        <v>600</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="31">
+        <v>210</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="31">
+        <f>MIN(D13*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>7.6507200000000006</v>
+      </c>
+      <c r="G13" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F13</f>
+        <v>1.0627571186577396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="31">
+        <v>500</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="31">
+        <v>160</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="31">
+        <f>MIN(D14*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>5.8291200000000005</v>
+      </c>
+      <c r="G14" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F14</f>
+        <v>1.3948687182382831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="31">
+        <v>800</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="31">
+        <v>190.43</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="31">
+        <f>MIN(D15*'Transportation Cost Calculation'!$D$20/1000, 'Transportation Cost Calculation'!$D$12)</f>
+        <v>6.9377457600000003</v>
+      </c>
+      <c r="G15" s="1">
+        <f>'Transportation Cost Calculation'!$D$19 / 'Biomass Cost'!F15</f>
+        <v>1.1719739269974547</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43554B66-5810-46DC-9357-F0098C102DAE}">
+  <dimension ref="B1:E54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="6" width="20.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="85.77734375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="25"/>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.84</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1.41</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="24">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1AB924-7B19-45ED-8673-9110DA6053AC}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="36">
+        <v>31.94</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="36">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="36">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="36">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="36">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="36">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="35"/>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="37">
+        <f>D3/D4</f>
+        <v>6.3879999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="37">
+        <f>D5*D7/D6</f>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="35"/>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="34">
+        <f>D15+D16+D8</f>
+        <v>8.1308571428571419</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="39">
+        <f>D9*D10*D11</f>
+        <v>36.432000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="30"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>